--- a/results/python/httpie/httpie.xlsx
+++ b/results/python/httpie/httpie.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamc\Desktop\results\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashort11/research/CodeSize/results/python/httpie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46A58728-E77C-4D8F-8060-AADBB29B3627}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC46AB54-5A73-A84D-AAD2-7D06ED09AC2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="12105"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="23980" windowHeight="12100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="httpie" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1252,7 +1260,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2088,16 +2096,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +2140,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2167,15 +2175,15 @@
         <v>9.4623376623376618</v>
       </c>
       <c r="N2" s="2">
-        <f>_xlfn.STDEV.P(C2:C386)</f>
-        <v>12.705628561103831</v>
+        <f>_xlfn.STDEV.S(C2:C386)</f>
+        <v>12.722161591599541</v>
       </c>
       <c r="O2" s="2">
         <f>N2/SQRT(COUNT(C2:C386))</f>
-        <v>0.64753879116162472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.64838139241743387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2210,15 +2218,15 @@
         <v>40.703896103896106</v>
       </c>
       <c r="N3" s="2">
-        <f>_xlfn.STDEV.P(D2:D386)</f>
-        <v>16.544017960426658</v>
+        <f>_xlfn.STDEV.S(D2:D386)</f>
+        <v>16.565545644172957</v>
       </c>
       <c r="O3" s="2">
         <f>N3/SQRT(COUNT(D2:D386))</f>
-        <v>0.84316122886250799</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.84425838121845398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2253,15 +2261,15 @@
         <v>8.0545454545454547</v>
       </c>
       <c r="N4" s="2">
-        <f>_xlfn.STDEV.P(E2:E386)</f>
-        <v>4.5947046159327964</v>
+        <f>_xlfn.STDEV.S(E2:E386)</f>
+        <v>4.6006834143187767</v>
       </c>
       <c r="O4" s="2">
         <f>N4/SQRT(COUNT(E2:E386))</f>
-        <v>0.23416783029956437</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.23447253808012306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2296,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <f>_xlfn.STDEV.P(F2:F386)</f>
+        <f>_xlfn.STDEV.S(F2:F386)</f>
         <v>0</v>
       </c>
       <c r="O5" s="2">
@@ -2304,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2324,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2344,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2364,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2384,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2404,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2424,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2444,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2464,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2484,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2504,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2524,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2544,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2564,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2584,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -2604,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -2624,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -2644,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -2664,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -2684,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -2704,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -2724,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -2744,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -2764,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -2784,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -2804,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -2824,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -2844,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -2864,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -2884,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -2904,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -2924,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -2944,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -2964,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -2984,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -3004,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -3024,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -3044,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -3064,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -3084,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -3104,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -3124,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -3144,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -3164,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -3184,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3204,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -3224,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -3244,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -3264,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -3284,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -3304,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -3324,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -3344,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -3364,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -3384,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -3404,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3424,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -3444,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -3464,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -3484,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -3504,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -3524,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -3544,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -3564,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -3584,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>80</v>
       </c>
@@ -3604,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>80</v>
       </c>
@@ -3624,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>80</v>
       </c>
@@ -3644,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>80</v>
       </c>
@@ -3664,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -3684,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -3704,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -3724,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -3744,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -3764,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>88</v>
       </c>
@@ -3784,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>88</v>
       </c>
@@ -3804,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -3824,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3844,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -3864,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -3884,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -3904,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -3924,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -3944,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -3964,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -3984,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>101</v>
       </c>
@@ -4004,7 +4012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>101</v>
       </c>
@@ -4024,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>101</v>
       </c>
@@ -4044,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>101</v>
       </c>
@@ -4064,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>101</v>
       </c>
@@ -4084,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -4104,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -4124,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -4144,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>101</v>
       </c>
@@ -4164,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -4184,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -4204,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -4224,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -4244,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -4264,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -4284,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>101</v>
       </c>
@@ -4304,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>101</v>
       </c>
@@ -4324,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>101</v>
       </c>
@@ -4344,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -4364,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -4384,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>122</v>
       </c>
@@ -4404,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>122</v>
       </c>
@@ -4424,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>122</v>
       </c>
@@ -4444,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>122</v>
       </c>
@@ -4464,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>122</v>
       </c>
@@ -4484,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>122</v>
       </c>
@@ -4504,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -4524,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>122</v>
       </c>
@@ -4544,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>122</v>
       </c>
@@ -4564,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>122</v>
       </c>
@@ -4584,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -4604,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>134</v>
       </c>
@@ -4624,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>134</v>
       </c>
@@ -4644,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>134</v>
       </c>
@@ -4664,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>134</v>
       </c>
@@ -4684,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>140</v>
       </c>
@@ -4704,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>140</v>
       </c>
@@ -4724,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>143</v>
       </c>
@@ -4744,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>143</v>
       </c>
@@ -4764,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>143</v>
       </c>
@@ -4784,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>143</v>
       </c>
@@ -4804,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>143</v>
       </c>
@@ -4824,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>149</v>
       </c>
@@ -4844,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>149</v>
       </c>
@@ -4864,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>149</v>
       </c>
@@ -4884,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>153</v>
       </c>
@@ -4904,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>153</v>
       </c>
@@ -4924,7 +4932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>153</v>
       </c>
@@ -4944,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>153</v>
       </c>
@@ -4964,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>153</v>
       </c>
@@ -4984,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>153</v>
       </c>
@@ -5004,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>153</v>
       </c>
@@ -5024,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>153</v>
       </c>
@@ -5044,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>153</v>
       </c>
@@ -5064,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>163</v>
       </c>
@@ -5084,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>163</v>
       </c>
@@ -5104,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>163</v>
       </c>
@@ -5124,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>163</v>
       </c>
@@ -5144,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>163</v>
       </c>
@@ -5164,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>163</v>
       </c>
@@ -5184,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>170</v>
       </c>
@@ -5204,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>170</v>
       </c>
@@ -5224,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>170</v>
       </c>
@@ -5244,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>170</v>
       </c>
@@ -5264,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>170</v>
       </c>
@@ -5284,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>170</v>
       </c>
@@ -5304,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>170</v>
       </c>
@@ -5324,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>170</v>
       </c>
@@ -5344,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>170</v>
       </c>
@@ -5364,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>170</v>
       </c>
@@ -5384,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>170</v>
       </c>
@@ -5404,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>182</v>
       </c>
@@ -5424,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -5444,7 +5452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>182</v>
       </c>
@@ -5464,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>182</v>
       </c>
@@ -5484,7 +5492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>187</v>
       </c>
@@ -5504,7 +5512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>187</v>
       </c>
@@ -5524,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>187</v>
       </c>
@@ -5544,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>191</v>
       </c>
@@ -5564,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>191</v>
       </c>
@@ -5584,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>191</v>
       </c>
@@ -5604,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>191</v>
       </c>
@@ -5624,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>191</v>
       </c>
@@ -5644,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>191</v>
       </c>
@@ -5664,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>191</v>
       </c>
@@ -5684,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>191</v>
       </c>
@@ -5704,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>191</v>
       </c>
@@ -5724,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -5744,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>191</v>
       </c>
@@ -5764,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>191</v>
       </c>
@@ -5784,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>191</v>
       </c>
@@ -5804,7 +5812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>191</v>
       </c>
@@ -5824,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>191</v>
       </c>
@@ -5844,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>191</v>
       </c>
@@ -5864,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>208</v>
       </c>
@@ -5884,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>208</v>
       </c>
@@ -5904,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>208</v>
       </c>
@@ -5924,7 +5932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>208</v>
       </c>
@@ -5944,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>208</v>
       </c>
@@ -5964,7 +5972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>208</v>
       </c>
@@ -5984,7 +5992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>208</v>
       </c>
@@ -6004,7 +6012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>208</v>
       </c>
@@ -6024,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -6044,7 +6052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>218</v>
       </c>
@@ -6064,7 +6072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>218</v>
       </c>
@@ -6084,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>218</v>
       </c>
@@ -6104,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>218</v>
       </c>
@@ -6124,7 +6132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>218</v>
       </c>
@@ -6144,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>218</v>
       </c>
@@ -6164,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>218</v>
       </c>
@@ -6184,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>226</v>
       </c>
@@ -6204,7 +6212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>226</v>
       </c>
@@ -6224,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>226</v>
       </c>
@@ -6244,7 +6252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>226</v>
       </c>
@@ -6264,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>226</v>
       </c>
@@ -6284,7 +6292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>226</v>
       </c>
@@ -6304,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>226</v>
       </c>
@@ -6324,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>226</v>
       </c>
@@ -6344,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>226</v>
       </c>
@@ -6364,7 +6372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>226</v>
       </c>
@@ -6384,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -6404,7 +6412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>226</v>
       </c>
@@ -6424,7 +6432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>226</v>
       </c>
@@ -6444,7 +6452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>240</v>
       </c>
@@ -6464,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>242</v>
       </c>
@@ -6484,7 +6492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>242</v>
       </c>
@@ -6504,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>242</v>
       </c>
@@ -6524,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>242</v>
       </c>
@@ -6544,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>242</v>
       </c>
@@ -6564,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>242</v>
       </c>
@@ -6584,7 +6592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>242</v>
       </c>
@@ -6604,7 +6612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>242</v>
       </c>
@@ -6624,7 +6632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>242</v>
       </c>
@@ -6644,7 +6652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>242</v>
       </c>
@@ -6664,7 +6672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>242</v>
       </c>
@@ -6684,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>242</v>
       </c>
@@ -6704,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -6724,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>242</v>
       </c>
@@ -6744,7 +6752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>242</v>
       </c>
@@ -6764,7 +6772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>242</v>
       </c>
@@ -6784,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>242</v>
       </c>
@@ -6804,7 +6812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>242</v>
       </c>
@@ -6824,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>242</v>
       </c>
@@ -6844,7 +6852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>242</v>
       </c>
@@ -6864,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>242</v>
       </c>
@@ -6884,7 +6892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>242</v>
       </c>
@@ -6904,7 +6912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>242</v>
       </c>
@@ -6924,7 +6932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>242</v>
       </c>
@@ -6944,7 +6952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>267</v>
       </c>
@@ -6964,7 +6972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>267</v>
       </c>
@@ -6984,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>267</v>
       </c>
@@ -7004,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>267</v>
       </c>
@@ -7024,7 +7032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>267</v>
       </c>
@@ -7044,7 +7052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>267</v>
       </c>
@@ -7064,7 +7072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>267</v>
       </c>
@@ -7084,7 +7092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>267</v>
       </c>
@@ -7104,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>267</v>
       </c>
@@ -7124,7 +7132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>267</v>
       </c>
@@ -7144,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>267</v>
       </c>
@@ -7164,7 +7172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>267</v>
       </c>
@@ -7184,7 +7192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>267</v>
       </c>
@@ -7204,7 +7212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -7224,7 +7232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>267</v>
       </c>
@@ -7244,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>267</v>
       </c>
@@ -7264,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>267</v>
       </c>
@@ -7284,7 +7292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>276</v>
       </c>
@@ -7304,7 +7312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>276</v>
       </c>
@@ -7324,7 +7332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>276</v>
       </c>
@@ -7344,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>276</v>
       </c>
@@ -7364,7 +7372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>279</v>
       </c>
@@ -7384,7 +7392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>279</v>
       </c>
@@ -7404,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>279</v>
       </c>
@@ -7424,7 +7432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>279</v>
       </c>
@@ -7444,7 +7452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>279</v>
       </c>
@@ -7464,7 +7472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>279</v>
       </c>
@@ -7484,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>279</v>
       </c>
@@ -7504,7 +7512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>279</v>
       </c>
@@ -7524,7 +7532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>279</v>
       </c>
@@ -7544,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>279</v>
       </c>
@@ -7564,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>279</v>
       </c>
@@ -7584,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>289</v>
       </c>
@@ -7604,7 +7612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>289</v>
       </c>
@@ -7624,7 +7632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>289</v>
       </c>
@@ -7644,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>289</v>
       </c>
@@ -7664,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>289</v>
       </c>
@@ -7684,7 +7692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>289</v>
       </c>
@@ -7704,7 +7712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>296</v>
       </c>
@@ -7724,7 +7732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>296</v>
       </c>
@@ -7744,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>296</v>
       </c>
@@ -7764,7 +7772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>296</v>
       </c>
@@ -7784,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>296</v>
       </c>
@@ -7804,7 +7812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>296</v>
       </c>
@@ -7824,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>296</v>
       </c>
@@ -7844,7 +7852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>296</v>
       </c>
@@ -7864,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>296</v>
       </c>
@@ -7884,7 +7892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>304</v>
       </c>
@@ -7904,7 +7912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>304</v>
       </c>
@@ -7924,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>304</v>
       </c>
@@ -7944,7 +7952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>304</v>
       </c>
@@ -7964,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>304</v>
       </c>
@@ -7984,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>304</v>
       </c>
@@ -8004,7 +8012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>304</v>
       </c>
@@ -8024,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>304</v>
       </c>
@@ -8044,7 +8052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>304</v>
       </c>
@@ -8064,7 +8072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>304</v>
       </c>
@@ -8084,7 +8092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>304</v>
       </c>
@@ -8104,7 +8112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>304</v>
       </c>
@@ -8124,7 +8132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>304</v>
       </c>
@@ -8144,7 +8152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>304</v>
       </c>
@@ -8164,7 +8172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>304</v>
       </c>
@@ -8184,7 +8192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>304</v>
       </c>
@@ -8204,7 +8212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>304</v>
       </c>
@@ -8224,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>304</v>
       </c>
@@ -8244,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>304</v>
       </c>
@@ -8264,7 +8272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>304</v>
       </c>
@@ -8284,7 +8292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -8304,7 +8312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>304</v>
       </c>
@@ -8324,7 +8332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>304</v>
       </c>
@@ -8344,7 +8352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>304</v>
       </c>
@@ -8364,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>304</v>
       </c>
@@ -8384,7 +8392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>304</v>
       </c>
@@ -8404,7 +8412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>304</v>
       </c>
@@ -8424,7 +8432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>304</v>
       </c>
@@ -8444,7 +8452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>304</v>
       </c>
@@ -8464,7 +8472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>304</v>
       </c>
@@ -8484,7 +8492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>304</v>
       </c>
@@ -8504,7 +8512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>333</v>
       </c>
@@ -8524,7 +8532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>334</v>
       </c>
@@ -8544,7 +8552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>334</v>
       </c>
@@ -8564,7 +8572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>334</v>
       </c>
@@ -8584,7 +8592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>334</v>
       </c>
@@ -8604,7 +8612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>339</v>
       </c>
@@ -8624,7 +8632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>339</v>
       </c>
@@ -8644,7 +8652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>339</v>
       </c>
@@ -8664,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>339</v>
       </c>
@@ -8684,7 +8692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>344</v>
       </c>
@@ -8704,7 +8712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>344</v>
       </c>
@@ -8724,7 +8732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>344</v>
       </c>
@@ -8744,7 +8752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>344</v>
       </c>
@@ -8764,7 +8772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>344</v>
       </c>
@@ -8784,7 +8792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>344</v>
       </c>
@@ -8804,7 +8812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>344</v>
       </c>
@@ -8824,7 +8832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>344</v>
       </c>
@@ -8844,7 +8852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>353</v>
       </c>
@@ -8864,7 +8872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>353</v>
       </c>
@@ -8884,7 +8892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>353</v>
       </c>
@@ -8904,7 +8912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>353</v>
       </c>
@@ -8924,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>353</v>
       </c>
@@ -8944,7 +8952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>359</v>
       </c>
@@ -8964,7 +8972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>359</v>
       </c>
@@ -8984,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>359</v>
       </c>
@@ -9004,7 +9012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>359</v>
       </c>
@@ -9024,7 +9032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>359</v>
       </c>
@@ -9044,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>359</v>
       </c>
@@ -9064,7 +9072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>359</v>
       </c>
@@ -9084,7 +9092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>359</v>
       </c>
@@ -9104,7 +9112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>359</v>
       </c>
@@ -9124,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>359</v>
       </c>
@@ -9144,7 +9152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>359</v>
       </c>
@@ -9164,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>359</v>
       </c>
@@ -9184,7 +9192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>359</v>
       </c>
@@ -9204,7 +9212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>359</v>
       </c>
@@ -9224,7 +9232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>359</v>
       </c>
@@ -9244,7 +9252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>359</v>
       </c>
@@ -9264,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>359</v>
       </c>
@@ -9284,7 +9292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>371</v>
       </c>
@@ -9304,7 +9312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>371</v>
       </c>
@@ -9324,7 +9332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>371</v>
       </c>
@@ -9344,7 +9352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>371</v>
       </c>
@@ -9364,7 +9372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>371</v>
       </c>
@@ -9384,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>371</v>
       </c>
@@ -9404,7 +9412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>377</v>
       </c>
@@ -9424,7 +9432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>378</v>
       </c>
@@ -9444,7 +9452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>379</v>
       </c>
@@ -9464,7 +9472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>379</v>
       </c>
@@ -9484,7 +9492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>379</v>
       </c>
@@ -9504,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>379</v>
       </c>
@@ -9524,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>383</v>
       </c>
@@ -9544,7 +9552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>383</v>
       </c>
@@ -9564,7 +9572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>383</v>
       </c>
@@ -9584,7 +9592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>383</v>
       </c>
@@ -9604,7 +9612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>383</v>
       </c>
@@ -9624,7 +9632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>383</v>
       </c>
@@ -9644,7 +9652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>383</v>
       </c>
@@ -9664,7 +9672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>383</v>
       </c>
@@ -9684,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>383</v>
       </c>
@@ -9704,7 +9712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>383</v>
       </c>
@@ -9724,7 +9732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>383</v>
       </c>
@@ -9744,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>383</v>
       </c>
@@ -9764,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>394</v>
       </c>
@@ -9784,7 +9792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>394</v>
       </c>
@@ -9804,7 +9812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>394</v>
       </c>
@@ -9824,7 +9832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>394</v>
       </c>
@@ -9844,7 +9852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>394</v>
       </c>
@@ -9864,7 +9872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>394</v>
       </c>
@@ -9884,7 +9892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>394</v>
       </c>
@@ -9904,7 +9912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>394</v>
       </c>
